--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Reln-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Reln-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.04097166666666667</v>
+        <v>0.1849593333333333</v>
       </c>
       <c r="H2">
-        <v>0.122915</v>
+        <v>0.554878</v>
       </c>
       <c r="I2">
-        <v>0.009706945257535529</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="J2">
-        <v>0.009706945257535527</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>3.884107895221667</v>
+        <v>32.71100089937512</v>
       </c>
       <c r="R2">
-        <v>34.956971056995</v>
+        <v>294.399008094376</v>
       </c>
       <c r="S2">
-        <v>0.001632672831650006</v>
+        <v>0.01302190291348641</v>
       </c>
       <c r="T2">
-        <v>0.001632672831650006</v>
+        <v>0.01302190291348641</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.04097166666666667</v>
+        <v>0.1849593333333333</v>
       </c>
       <c r="H3">
-        <v>0.122915</v>
+        <v>0.554878</v>
       </c>
       <c r="I3">
-        <v>0.009706945257535529</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="J3">
-        <v>0.009706945257535527</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>5.967169364057778</v>
+        <v>26.93772934458489</v>
       </c>
       <c r="R3">
-        <v>53.70452427652</v>
+        <v>242.439564101264</v>
       </c>
       <c r="S3">
-        <v>0.002508281326205377</v>
+        <v>0.01072362467030654</v>
       </c>
       <c r="T3">
-        <v>0.002508281326205377</v>
+        <v>0.01072362467030654</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.04097166666666667</v>
+        <v>0.1849593333333333</v>
       </c>
       <c r="H4">
-        <v>0.122915</v>
+        <v>0.554878</v>
       </c>
       <c r="I4">
-        <v>0.009706945257535529</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="J4">
-        <v>0.009706945257535527</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>2.981752811497778</v>
+        <v>15.54122894539111</v>
       </c>
       <c r="R4">
-        <v>26.83577530348</v>
+        <v>139.87106050852</v>
       </c>
       <c r="S4">
-        <v>0.001253370641947786</v>
+        <v>0.006186798597379937</v>
       </c>
       <c r="T4">
-        <v>0.001253370641947786</v>
+        <v>0.006186798597379937</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.04097166666666667</v>
+        <v>0.1849593333333333</v>
       </c>
       <c r="H5">
-        <v>0.122915</v>
+        <v>0.554878</v>
       </c>
       <c r="I5">
-        <v>0.009706945257535529</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="J5">
-        <v>0.009706945257535527</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>4.745989541402778</v>
+        <v>15.70836972812289</v>
       </c>
       <c r="R5">
-        <v>42.71390587262501</v>
+        <v>141.375327553106</v>
       </c>
       <c r="S5">
-        <v>0.001994962136112641</v>
+        <v>0.006253335572274489</v>
       </c>
       <c r="T5">
-        <v>0.00199496213611264</v>
+        <v>0.006253335572274489</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.04097166666666667</v>
+        <v>0.1849593333333333</v>
       </c>
       <c r="H6">
-        <v>0.122915</v>
+        <v>0.554878</v>
       </c>
       <c r="I6">
-        <v>0.009706945257535529</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="J6">
-        <v>0.009706945257535527</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>2.384013697563333</v>
+        <v>11.83203789003756</v>
       </c>
       <c r="R6">
-        <v>21.45612327807</v>
+        <v>106.488341010338</v>
       </c>
       <c r="S6">
-        <v>0.001002112840140604</v>
+        <v>0.004710208933891257</v>
       </c>
       <c r="T6">
-        <v>0.001002112840140604</v>
+        <v>0.004710208933891257</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.04097166666666667</v>
+        <v>0.1849593333333333</v>
       </c>
       <c r="H7">
-        <v>0.122915</v>
+        <v>0.554878</v>
       </c>
       <c r="I7">
-        <v>0.009706945257535529</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="J7">
-        <v>0.009706945257535527</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>3.129665963738889</v>
+        <v>19.79602130372822</v>
       </c>
       <c r="R7">
-        <v>28.16699367365</v>
+        <v>178.164191733554</v>
       </c>
       <c r="S7">
-        <v>0.001315545481479114</v>
+        <v>0.007880586359415926</v>
       </c>
       <c r="T7">
-        <v>0.001315545481479114</v>
+        <v>0.007880586359415926</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.291019</v>
       </c>
       <c r="I8">
-        <v>0.02298259367776701</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="J8">
-        <v>0.02298259367776701</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>9.196185946056334</v>
+        <v>17.15606452361645</v>
       </c>
       <c r="R8">
-        <v>82.765673514507</v>
+        <v>154.404580712548</v>
       </c>
       <c r="S8">
-        <v>0.003865588535117383</v>
+        <v>0.00682964753329543</v>
       </c>
       <c r="T8">
-        <v>0.003865588535117383</v>
+        <v>0.00682964753329543</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.291019</v>
       </c>
       <c r="I9">
-        <v>0.02298259367776701</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="J9">
-        <v>0.02298259367776701</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
         <v>14.12813457396356</v>
@@ -1013,10 +1013,10 @@
         <v>127.153211165672</v>
       </c>
       <c r="S9">
-        <v>0.005938718002448543</v>
+        <v>0.005624260698618324</v>
       </c>
       <c r="T9">
-        <v>0.005938718002448543</v>
+        <v>0.005624260698618324</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.291019</v>
       </c>
       <c r="I10">
-        <v>0.02298259367776701</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="J10">
-        <v>0.02298259367776701</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>7.059730069147556</v>
+        <v>8.150968152384445</v>
       </c>
       <c r="R10">
-        <v>63.537570622328</v>
+        <v>73.35871337146001</v>
       </c>
       <c r="S10">
-        <v>0.002967535865020565</v>
+        <v>0.003244814069058265</v>
       </c>
       <c r="T10">
-        <v>0.002967535865020565</v>
+        <v>0.003244814069058265</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.291019</v>
       </c>
       <c r="I11">
-        <v>0.02298259367776701</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="J11">
-        <v>0.02298259367776701</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>11.23681511898056</v>
+        <v>8.238629121912558</v>
       </c>
       <c r="R11">
-        <v>101.131336070825</v>
+        <v>74.14766209721301</v>
       </c>
       <c r="S11">
-        <v>0.004723360744330346</v>
+        <v>0.00327971097233581</v>
       </c>
       <c r="T11">
-        <v>0.004723360744330346</v>
+        <v>0.00327971097233581</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.291019</v>
       </c>
       <c r="I12">
-        <v>0.02298259367776701</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="J12">
-        <v>0.02298259367776701</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>5.644496458944667</v>
+        <v>6.205594445483223</v>
       </c>
       <c r="R12">
-        <v>50.800468130502</v>
+        <v>55.85035000934901</v>
       </c>
       <c r="S12">
-        <v>0.002372646760972042</v>
+        <v>0.002470381405880392</v>
       </c>
       <c r="T12">
-        <v>0.002372646760972042</v>
+        <v>0.002470381405880392</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.291019</v>
       </c>
       <c r="I13">
-        <v>0.02298259367776701</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="J13">
-        <v>0.02298259367776701</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>7.409935801987779</v>
+        <v>10.38249547430189</v>
       </c>
       <c r="R13">
-        <v>66.68942221789001</v>
+        <v>93.44245926871702</v>
       </c>
       <c r="S13">
-        <v>0.003114743769878131</v>
+        <v>0.00413316145482586</v>
       </c>
       <c r="T13">
-        <v>0.003114743769878131</v>
+        <v>0.00413316145482586</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1293,10 +1293,10 @@
         <v>0.000221</v>
       </c>
       <c r="I14">
-        <v>1.745299517483913E-05</v>
+        <v>1.942696774305839E-05</v>
       </c>
       <c r="J14">
-        <v>1.745299517483913E-05</v>
+        <v>1.94269677430584E-05</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>0.006983589023666666</v>
+        <v>0.01302832550355556</v>
       </c>
       <c r="R14">
-        <v>0.06285230121299999</v>
+        <v>0.117254929532</v>
       </c>
       <c r="S14">
-        <v>2.935530210264421E-06</v>
+        <v>5.186438359207783E-06</v>
       </c>
       <c r="T14">
-        <v>2.935530210264421E-06</v>
+        <v>5.186438359207784E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1355,10 +1355,10 @@
         <v>0.000221</v>
       </c>
       <c r="I15">
-        <v>1.745299517483913E-05</v>
+        <v>1.942696774305839E-05</v>
       </c>
       <c r="J15">
-        <v>1.745299517483913E-05</v>
+        <v>1.94269677430584E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,10 +1373,10 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
         <v>0.01072891371644444</v>
@@ -1385,10 +1385,10 @@
         <v>0.096560223448</v>
       </c>
       <c r="S15">
-        <v>4.509865948756362E-06</v>
+        <v>4.271066887023354E-06</v>
       </c>
       <c r="T15">
-        <v>4.509865948756364E-06</v>
+        <v>4.271066887023355E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1417,10 +1417,10 @@
         <v>0.000221</v>
       </c>
       <c r="I16">
-        <v>1.745299517483913E-05</v>
+        <v>1.942696774305839E-05</v>
       </c>
       <c r="J16">
-        <v>1.745299517483913E-05</v>
+        <v>1.94269677430584E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>0.005361163172444445</v>
+        <v>0.006189850015555555</v>
       </c>
       <c r="R16">
-        <v>0.048250468552</v>
+        <v>0.05570865014</v>
       </c>
       <c r="S16">
-        <v>2.253548483671323E-06</v>
+        <v>2.464113715124705E-06</v>
       </c>
       <c r="T16">
-        <v>2.253548483671323E-06</v>
+        <v>2.464113715124705E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1479,10 +1479,10 @@
         <v>0.000221</v>
       </c>
       <c r="I17">
-        <v>1.745299517483913E-05</v>
+        <v>1.942696774305839E-05</v>
       </c>
       <c r="J17">
-        <v>1.745299517483913E-05</v>
+        <v>1.94269677430584E-05</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>0.008533244019444445</v>
+        <v>0.006256419807444446</v>
       </c>
       <c r="R17">
-        <v>0.076799196175</v>
+        <v>0.05630777826700001</v>
       </c>
       <c r="S17">
-        <v>3.586922931138538E-06</v>
+        <v>2.490614444026727E-06</v>
       </c>
       <c r="T17">
-        <v>3.586922931138539E-06</v>
+        <v>2.490614444026727E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1541,10 +1541,10 @@
         <v>0.000221</v>
       </c>
       <c r="I18">
-        <v>1.745299517483913E-05</v>
+        <v>1.942696774305839E-05</v>
       </c>
       <c r="J18">
-        <v>1.745299517483913E-05</v>
+        <v>1.94269677430584E-05</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>0.004286433935333333</v>
+        <v>0.004712532076777778</v>
       </c>
       <c r="R18">
-        <v>0.038577905418</v>
+        <v>0.042412788691</v>
       </c>
       <c r="S18">
-        <v>1.801789347688024E-06</v>
+        <v>1.876009094593709E-06</v>
       </c>
       <c r="T18">
-        <v>1.801789347688025E-06</v>
+        <v>1.876009094593709E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1603,10 +1603,10 @@
         <v>0.000221</v>
       </c>
       <c r="I19">
-        <v>1.745299517483913E-05</v>
+        <v>1.942696774305839E-05</v>
       </c>
       <c r="J19">
-        <v>1.745299517483913E-05</v>
+        <v>1.94269677430584E-05</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>0.005627109612222223</v>
+        <v>0.00788447317811111</v>
       </c>
       <c r="R19">
-        <v>0.05064398651000001</v>
+        <v>0.07096025860300001</v>
       </c>
       <c r="S19">
-        <v>2.365338253320459E-06</v>
+        <v>3.138725243082118E-06</v>
       </c>
       <c r="T19">
-        <v>2.36533825332046E-06</v>
+        <v>3.138725243082118E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.051414</v>
+        <v>3.473271</v>
       </c>
       <c r="H20">
-        <v>12.154242</v>
+        <v>10.419813</v>
       </c>
       <c r="I20">
-        <v>0.9598548732118873</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="J20">
-        <v>0.9598548732118872</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N20">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q20">
-        <v>384.073443539314</v>
+        <v>614.2656807700441</v>
       </c>
       <c r="R20">
-        <v>3456.660991853826</v>
+        <v>5528.391126930397</v>
       </c>
       <c r="S20">
-        <v>0.1614440930944102</v>
+        <v>0.2445326599048504</v>
       </c>
       <c r="T20">
-        <v>0.1614440930944102</v>
+        <v>0.2445326599048504</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.051414</v>
+        <v>3.473271</v>
       </c>
       <c r="H21">
-        <v>12.154242</v>
+        <v>10.419813</v>
       </c>
       <c r="I21">
-        <v>0.9598548732118873</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="J21">
-        <v>0.9598548732118872</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q21">
-        <v>590.0534556868106</v>
+        <v>505.851921350616</v>
       </c>
       <c r="R21">
-        <v>5310.481101181295</v>
+        <v>4552.667292155545</v>
       </c>
       <c r="S21">
-        <v>0.2480271589535947</v>
+        <v>0.2013742908293008</v>
       </c>
       <c r="T21">
-        <v>0.2480271589535947</v>
+        <v>0.2013742908293008</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.051414</v>
+        <v>3.473271</v>
       </c>
       <c r="H22">
-        <v>12.154242</v>
+        <v>10.419813</v>
       </c>
       <c r="I22">
-        <v>0.9598548732118873</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="J22">
-        <v>0.9598548732118872</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N22">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q22">
-        <v>294.8455864225227</v>
+        <v>291.84198941238</v>
       </c>
       <c r="R22">
-        <v>2653.610277802704</v>
+        <v>2626.577904711421</v>
       </c>
       <c r="S22">
-        <v>0.1239374372365353</v>
+        <v>0.1161792041734602</v>
       </c>
       <c r="T22">
-        <v>0.1239374372365353</v>
+        <v>0.1161792041734602</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.051414</v>
+        <v>3.473271</v>
       </c>
       <c r="H23">
-        <v>12.154242</v>
+        <v>10.419813</v>
       </c>
       <c r="I23">
-        <v>0.9598548732118873</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="J23">
-        <v>0.9598548732118872</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N23">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q23">
-        <v>469.2991532008167</v>
+        <v>294.9806535885391</v>
       </c>
       <c r="R23">
-        <v>4223.69237880735</v>
+        <v>2654.825882296851</v>
       </c>
       <c r="S23">
-        <v>0.1972684585538784</v>
+        <v>0.1174286731305768</v>
       </c>
       <c r="T23">
-        <v>0.1972684585538784</v>
+        <v>0.1174286731305768</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.051414</v>
+        <v>3.473271</v>
       </c>
       <c r="H24">
-        <v>12.154242</v>
+        <v>10.419813</v>
       </c>
       <c r="I24">
-        <v>0.9598548732118873</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="J24">
-        <v>0.9598548732118872</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N24">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q24">
-        <v>235.739164556804</v>
+        <v>222.188701341747</v>
       </c>
       <c r="R24">
-        <v>2121.652481011236</v>
+        <v>1999.698312075723</v>
       </c>
       <c r="S24">
-        <v>0.09909223422996556</v>
+        <v>0.08845096810844234</v>
       </c>
       <c r="T24">
-        <v>0.09909223422996556</v>
+        <v>0.08845096810844234</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.051414</v>
+        <v>3.473271</v>
       </c>
       <c r="H25">
-        <v>12.154242</v>
+        <v>10.419813</v>
       </c>
       <c r="I25">
-        <v>0.9598548732118873</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="J25">
-        <v>0.9598548732118872</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N25">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q25">
-        <v>309.4717284501134</v>
+        <v>371.7408874182511</v>
       </c>
       <c r="R25">
-        <v>2785.24555605102</v>
+        <v>3345.66798676426</v>
       </c>
       <c r="S25">
-        <v>0.130085491143503</v>
+        <v>0.1479861090103856</v>
       </c>
       <c r="T25">
-        <v>0.130085491143503</v>
+        <v>0.1479861090103856</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.02013433333333333</v>
+        <v>0.02025933333333333</v>
       </c>
       <c r="H26">
-        <v>0.06040300000000001</v>
+        <v>0.060778</v>
       </c>
       <c r="I26">
-        <v>0.004770195780750263</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="J26">
-        <v>0.004770195780750263</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N26">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q26">
-        <v>1.908731799984333</v>
+        <v>3.582966368575111</v>
       </c>
       <c r="R26">
-        <v>17.178586199859</v>
+        <v>32.246697317176</v>
       </c>
       <c r="S26">
-        <v>0.0008023295533511395</v>
+        <v>0.001426340952922763</v>
       </c>
       <c r="T26">
-        <v>0.0008023295533511396</v>
+        <v>0.001426340952922763</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.02013433333333333</v>
+        <v>0.02025933333333333</v>
       </c>
       <c r="H27">
-        <v>0.06040300000000001</v>
+        <v>0.060778</v>
       </c>
       <c r="I27">
-        <v>0.004770195780750263</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="J27">
-        <v>0.004770195780750263</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q27">
-        <v>2.932391743051555</v>
+        <v>2.950596913384889</v>
       </c>
       <c r="R27">
-        <v>26.391525687464</v>
+        <v>26.555372220464</v>
       </c>
       <c r="S27">
-        <v>0.001232621868338147</v>
+        <v>0.001174601372214956</v>
       </c>
       <c r="T27">
-        <v>0.001232621868338148</v>
+        <v>0.001174601372214956</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.02013433333333333</v>
+        <v>0.02025933333333333</v>
       </c>
       <c r="H28">
-        <v>0.06040300000000001</v>
+        <v>0.060778</v>
       </c>
       <c r="I28">
-        <v>0.004770195780750263</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="J28">
-        <v>0.004770195780750263</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N28">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q28">
-        <v>1.465295652059555</v>
+        <v>1.702292779391111</v>
       </c>
       <c r="R28">
-        <v>13.187660868536</v>
+        <v>15.32063501452</v>
       </c>
       <c r="S28">
-        <v>0.0006159325296796332</v>
+        <v>0.000677664721166739</v>
       </c>
       <c r="T28">
-        <v>0.0006159325296796332</v>
+        <v>0.000677664721166739</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.02013433333333333</v>
+        <v>0.02025933333333333</v>
       </c>
       <c r="H29">
-        <v>0.06040300000000001</v>
+        <v>0.060778</v>
       </c>
       <c r="I29">
-        <v>0.004770195780750263</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="J29">
-        <v>0.004770195780750263</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N29">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q29">
-        <v>2.332278454780556</v>
+        <v>1.720600375822889</v>
       </c>
       <c r="R29">
-        <v>20.990506093025</v>
+        <v>15.485403382406</v>
       </c>
       <c r="S29">
-        <v>0.0009803660896360233</v>
+        <v>0.0006849527813531964</v>
       </c>
       <c r="T29">
-        <v>0.0009803660896360235</v>
+        <v>0.0006849527813531964</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.02013433333333333</v>
+        <v>0.02025933333333333</v>
       </c>
       <c r="H30">
-        <v>0.06040300000000001</v>
+        <v>0.060778</v>
       </c>
       <c r="I30">
-        <v>0.004770195780750263</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="J30">
-        <v>0.004770195780750263</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N30">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q30">
-        <v>1.171554158352667</v>
+        <v>1.296010292137556</v>
       </c>
       <c r="R30">
-        <v>10.543987425174</v>
+        <v>11.664092629238</v>
       </c>
       <c r="S30">
-        <v>0.0004924591944271481</v>
+        <v>0.0005159279672000744</v>
       </c>
       <c r="T30">
-        <v>0.0004924591944271482</v>
+        <v>0.0005159279672000744</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.02013433333333333</v>
+        <v>0.02025933333333333</v>
       </c>
       <c r="H31">
-        <v>0.06040300000000001</v>
+        <v>0.060778</v>
       </c>
       <c r="I31">
-        <v>0.004770195780750263</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="J31">
-        <v>0.004770195780750263</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N31">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q31">
-        <v>1.537983266547778</v>
+        <v>2.168337153028222</v>
       </c>
       <c r="R31">
-        <v>13.84184939893</v>
+        <v>19.515034377254</v>
       </c>
       <c r="S31">
-        <v>0.0006464865453181707</v>
+        <v>0.0008631920489775791</v>
       </c>
       <c r="T31">
-        <v>0.0006464865453181708</v>
+        <v>0.0008631920489775791</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.011261</v>
+        <v>0.01641</v>
       </c>
       <c r="H32">
-        <v>0.033783</v>
+        <v>0.04923</v>
       </c>
       <c r="I32">
-        <v>0.002667939076885024</v>
+        <v>0.004327554850636945</v>
       </c>
       <c r="J32">
-        <v>0.002667939076885024</v>
+        <v>0.004327554850636945</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N32">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q32">
-        <v>1.067541122111</v>
+        <v>2.90219214724</v>
       </c>
       <c r="R32">
-        <v>9.607870098998999</v>
+        <v>26.11972932516</v>
       </c>
       <c r="S32">
-        <v>0.0004487376339066196</v>
+        <v>0.001155331947619001</v>
       </c>
       <c r="T32">
-        <v>0.0004487376339066196</v>
+        <v>0.001155331947619001</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.011261</v>
+        <v>0.01641</v>
       </c>
       <c r="H33">
-        <v>0.033783</v>
+        <v>0.04923</v>
       </c>
       <c r="I33">
-        <v>0.002667939076885024</v>
+        <v>0.004327554850636945</v>
       </c>
       <c r="J33">
-        <v>0.002667939076885024</v>
+        <v>0.004327554850636945</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q33">
-        <v>1.640067384989333</v>
+        <v>2.38997476136</v>
       </c>
       <c r="R33">
-        <v>14.760606464904</v>
+        <v>21.50977285224</v>
       </c>
       <c r="S33">
-        <v>0.0006893972911621547</v>
+        <v>0.0009514236327971027</v>
       </c>
       <c r="T33">
-        <v>0.0006893972911621547</v>
+        <v>0.0009514236327971029</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.011261</v>
+        <v>0.01641</v>
       </c>
       <c r="H34">
-        <v>0.033783</v>
+        <v>0.04923</v>
       </c>
       <c r="I34">
-        <v>0.002667939076885024</v>
+        <v>0.004327554850636945</v>
       </c>
       <c r="J34">
-        <v>0.002667939076885024</v>
+        <v>0.004327554850636945</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N34">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q34">
-        <v>0.8195302056773334</v>
+        <v>1.3788521098</v>
       </c>
       <c r="R34">
-        <v>7.375771851096</v>
+        <v>12.4096689882</v>
       </c>
       <c r="S34">
-        <v>0.000344487006442843</v>
+        <v>0.0005489064171746119</v>
       </c>
       <c r="T34">
-        <v>0.000344487006442843</v>
+        <v>0.000548906417174612</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.011261</v>
+        <v>0.01641</v>
       </c>
       <c r="H35">
-        <v>0.033783</v>
+        <v>0.04923</v>
       </c>
       <c r="I35">
-        <v>0.002667939076885024</v>
+        <v>0.004327554850636945</v>
       </c>
       <c r="J35">
-        <v>0.002667939076885024</v>
+        <v>0.004327554850636945</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N35">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q35">
-        <v>1.304427976058333</v>
+        <v>1.39368120869</v>
       </c>
       <c r="R35">
-        <v>11.739851784525</v>
+        <v>12.54313087821</v>
       </c>
       <c r="S35">
-        <v>0.0005483122958491098</v>
+        <v>0.0005548097243413382</v>
       </c>
       <c r="T35">
-        <v>0.0005483122958491097</v>
+        <v>0.0005548097243413383</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.011261</v>
+        <v>0.01641</v>
       </c>
       <c r="H36">
-        <v>0.033783</v>
+        <v>0.04923</v>
       </c>
       <c r="I36">
-        <v>0.002667939076885024</v>
+        <v>0.004327554850636945</v>
       </c>
       <c r="J36">
-        <v>0.002667939076885024</v>
+        <v>0.004327554850636945</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N36">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q36">
-        <v>0.655242523246</v>
+        <v>1.04976449837</v>
       </c>
       <c r="R36">
-        <v>5.897182709213999</v>
+        <v>9.44788048533</v>
       </c>
       <c r="S36">
-        <v>0.0002754291834069888</v>
+        <v>0.0004179001254608519</v>
       </c>
       <c r="T36">
-        <v>0.0002754291834069888</v>
+        <v>0.000417900125460852</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.011261</v>
+        <v>0.01641</v>
       </c>
       <c r="H37">
-        <v>0.033783</v>
+        <v>0.04923</v>
       </c>
       <c r="I37">
-        <v>0.002667939076885024</v>
+        <v>0.004327554850636945</v>
       </c>
       <c r="J37">
-        <v>0.002667939076885024</v>
+        <v>0.004327554850636945</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N37">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q37">
-        <v>0.8601839096366667</v>
+        <v>1.75634667221</v>
       </c>
       <c r="R37">
-        <v>7.741655186730001</v>
+        <v>15.80712004989</v>
       </c>
       <c r="S37">
-        <v>0.0003615756661173081</v>
+        <v>0.0006991830032440392</v>
       </c>
       <c r="T37">
-        <v>0.0003615756661173081</v>
+        <v>0.0006991830032440393</v>
       </c>
     </row>
   </sheetData>
